--- a/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/30/Output_28_31.xlsx
+++ b/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/30/Output_28_31.xlsx
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>69057.39464181158</v>
+        <v>13522839.42448182</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>69057.39464181158</v>
+        <v>13522839.42448182</v>
       </c>
     </row>
     <row r="9">
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>63206.60054152851</v>
+        <v>7480936.105569583</v>
       </c>
     </row>
     <row r="10">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>63206.60054152851</v>
+        <v>7480936.105569583</v>
       </c>
     </row>
     <row r="11">
@@ -561,7 +561,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1495194942.963123</v>
+        <v>54396895.27192104</v>
       </c>
     </row>
   </sheetData>
@@ -26131,7 +26131,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>14178.55962294418</v>
+        <v>1338205.974955193</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26139,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>26804.49118383802</v>
+        <v>2438771.671786632</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>39430.42274473181</v>
+        <v>3539337.368618071</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26155,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>51779.52638715917</v>
+        <v>4596217.328968939</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>64006.41822192669</v>
+        <v>5694753.971535048</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>76171.42024044729</v>
+        <v>6790356.265090946</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>88329.58940807829</v>
+        <v>7885891.989093816</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>100487.9862354853</v>
+        <v>8981342.293001348</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>113865.5294238096</v>
+        <v>9676081.23702826</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>126502.178565485</v>
+        <v>10838559.23747209</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>138675.5834852959</v>
+        <v>11930383.80373162</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>150848.9884051068</v>
+        <v>13022208.36999116</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>163022.3933249177</v>
+        <v>14114032.9362507</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>176036.2663543865</v>
+        <v>15035069.10170643</v>
       </c>
     </row>
     <row r="16">
@@ -26243,7 +26243,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>191126.9829479755</v>
+        <v>15646278.76268799</v>
       </c>
     </row>
   </sheetData>
